--- a/branches/update-uml/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/update-uml/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:36:35+00:00</t>
+    <t>2023-03-06T13:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-uml/StructureDefinition-viral-load-specimen.xlsx
+++ b/branches/update-uml/StructureDefinition-viral-load-specimen.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T13:46:45+00:00</t>
+    <t>2023-03-06T13:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
